--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16500" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="16500" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="login_page" sheetId="2" r:id="rId1"/>
-    <sheet name="main_page" sheetId="1" r:id="rId2"/>
+    <sheet name="login" sheetId="2" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>元素变量名</t>
   </si>
@@ -23,6 +23,9 @@
     <t>元素名称</t>
   </si>
   <si>
+    <t>所属页面</t>
+  </si>
+  <si>
     <t>定位方式</t>
   </si>
   <si>
@@ -36,6 +39,9 @@
   </si>
   <si>
     <t>用户名输入框</t>
+  </si>
+  <si>
+    <t>login_page</t>
   </si>
   <si>
     <t>xpath</t>
@@ -94,8 +100,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -117,48 +123,64 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,6 +194,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -180,6 +209,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -190,52 +235,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -243,9 +257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,13 +266,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,25 +280,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,13 +364,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,43 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,79 +442,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,17 +489,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,8 +501,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,11 +522,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,22 +571,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,148 +591,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,22 +1071,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="27.125" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,65 +1102,75 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5</v>
-      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
       <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1168,8 +1184,8 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1189,27 +1205,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
@@ -1217,16 +1233,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
@@ -1234,16 +1250,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>

--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16500" windowHeight="12375"/>
+    <workbookView windowWidth="14265" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>元素变量名</t>
   </si>
@@ -74,6 +74,9 @@
     <t>后台标题</t>
   </si>
   <si>
+    <t>main_page</t>
+  </si>
+  <si>
     <t>//a[@class="brand"]</t>
   </si>
   <si>
@@ -93,6 +96,15 @@
   </si>
   <si>
     <t>//a[text()="前台首页"]</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
+    <t>退出系统</t>
+  </si>
+  <si>
+    <t>//a[@href="/DBshop/admin/loginout"]</t>
   </si>
 </sst>
 </file>
@@ -102,8 +114,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -120,10 +132,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,16 +155,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,116 +238,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,13 +292,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,169 +406,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,35 +501,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,6 +532,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -552,26 +579,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,156 +603,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1073,7 +1091,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1107,62 +1125,62 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1182,22 +1200,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="53.625" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="53.625" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1205,16 +1223,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1222,51 +1243,77 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="4:4">
-      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/element_info_datas/element_infos.xlsx
+++ b/element_info_datas/element_infos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14265" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="14265" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -112,10 +112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -132,44 +132,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,6 +168,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -204,6 +203,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,6 +246,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -248,7 +262,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,28 +278,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,13 +292,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,169 +460,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,21 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -527,6 +512,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,11 +573,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,159 +603,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1091,8 +1088,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1125,62 +1122,62 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1202,7 +1199,7 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1299,7 +1296,7 @@
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1311,7 +1308,7 @@
       <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>5</v>
       </c>
     </row>
